--- a/Organisation/planning.xlsx
+++ b/Organisation/planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bienvenue\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouey\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9CCF7D9E-E7D8-47FF-AFEA-DD14D8C3228C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2169E38F-11D7-42DD-BE05-A36D6E81FB15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{35CFDE23-2118-4035-BA1E-C7C843F3D1C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" xr2:uid="{35CFDE23-2118-4035-BA1E-C7C843F3D1C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="36">
   <si>
     <t>Monnayeur (software)</t>
   </si>
@@ -170,12 +170,15 @@
   <si>
     <t>Code debug</t>
   </si>
+  <si>
+    <t>Soudage du système</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -295,6 +305,9 @@
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -613,16 +626,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C505AF-EDB9-4C97-B8A7-87A9D857C7BA}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="30.7109375" customWidth="1"/>
+    <col min="1" max="16" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -672,7 +685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +705,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -712,7 +725,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -732,7 +745,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -752,7 +765,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -772,7 +785,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -792,7 +805,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -812,7 +825,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -832,7 +845,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -852,7 +865,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -872,7 +885,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -892,7 +905,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -912,7 +925,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -932,7 +945,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -952,7 +965,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -972,7 +985,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -992,7 +1005,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1012,7 +1025,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -1032,7 +1045,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
@@ -1052,13 +1065,15 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="7"/>
@@ -1070,7 +1085,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1088,7 +1103,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1106,7 +1121,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1124,7 +1139,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
